--- a/GSE145408/GSE145408_Target.xlsx
+++ b/GSE145408/GSE145408_Target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Desktop/Projet/Test/GSE145408/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA24FEFD-BD33-BF4F-8AAD-35F4F6BF0440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0259DFF-CE03-7B46-B82F-B1B90B6500A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="1100" windowWidth="25040" windowHeight="14500" xr2:uid="{B2824B27-19FB-E04F-8168-EB4ACF20B240}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
   <si>
     <t>GSM</t>
   </si>
@@ -287,7 +287,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t>a</t>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>WR</t>
   </si>
 </sst>
 </file>
@@ -665,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810E2F1C-0F4D-7149-8982-1375AA16D649}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I34" activeCellId="1" sqref="F2:F37 I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,8 +704,8 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
+      <c r="B2" t="s">
+        <v>83</v>
       </c>
       <c r="C2">
         <v>1001</v>
@@ -708,11 +714,11 @@
         <v>44</v>
       </c>
       <c r="E2" t="str">
-        <f>_xlfn.CONCAT(C2,"-",D2)</f>
-        <v>1001-T0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
+        <f>_xlfn.CONCAT(B2,"-",D2)</f>
+        <v>NW-T0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>81</v>
@@ -722,8 +728,8 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
+      <c r="B3" t="s">
+        <v>83</v>
       </c>
       <c r="C3">
         <v>1001</v>
@@ -732,11 +738,11 @@
         <v>45</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E36" si="0">_xlfn.CONCAT(C3,"-",D3)</f>
-        <v>1001-T1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
+        <f t="shared" ref="E3:E37" si="0">_xlfn.CONCAT(B3,"-",D3)</f>
+        <v>NW-T1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G3" t="s">
         <v>63</v>
@@ -746,8 +752,8 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
+      <c r="B4" t="s">
+        <v>83</v>
       </c>
       <c r="C4" s="2">
         <v>4006</v>
@@ -757,10 +763,10 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>4006-T0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
+        <v>NW-T0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -770,8 +776,8 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
+      <c r="B5" t="s">
+        <v>83</v>
       </c>
       <c r="C5" s="2">
         <v>4006</v>
@@ -781,10 +787,10 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>4006-T1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
+        <v>NW-T1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G5" t="s">
         <v>64</v>
@@ -794,8 +800,8 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>42</v>
+      <c r="B6" t="s">
+        <v>83</v>
       </c>
       <c r="C6" s="2">
         <v>5007</v>
@@ -805,10 +811,10 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>5007-T0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
+        <v>NW-T0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
@@ -818,8 +824,8 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
+      <c r="B7" t="s">
+        <v>83</v>
       </c>
       <c r="C7" s="2">
         <v>5007</v>
@@ -829,10 +835,10 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>5007-T1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>83</v>
+        <v>NW-T1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G7" t="s">
         <v>65</v>
@@ -842,8 +848,8 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
+      <c r="B8" t="s">
+        <v>83</v>
       </c>
       <c r="C8" s="2">
         <v>23003</v>
@@ -853,10 +859,10 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>23003-T0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
+        <v>NW-T0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
@@ -866,8 +872,8 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
+      <c r="B9" t="s">
+        <v>83</v>
       </c>
       <c r="C9" s="2">
         <v>23003</v>
@@ -877,10 +883,10 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>23003-T1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>83</v>
+        <v>NW-T1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G9" t="s">
         <v>66</v>
@@ -890,8 +896,8 @@
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>42</v>
+      <c r="B10" t="s">
+        <v>84</v>
       </c>
       <c r="C10" s="2">
         <v>4005</v>
@@ -901,10 +907,10 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>4005-T0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
+        <v>WS-T0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
@@ -914,8 +920,8 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
+      <c r="B11" t="s">
+        <v>84</v>
       </c>
       <c r="C11" s="2">
         <v>4005</v>
@@ -925,10 +931,10 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>4005-T1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>83</v>
+        <v>WS-T1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G11" t="s">
         <v>67</v>
@@ -938,8 +944,8 @@
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>42</v>
+      <c r="B12" t="s">
+        <v>84</v>
       </c>
       <c r="C12" s="2">
         <v>5002</v>
@@ -949,10 +955,10 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>5002-T0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>83</v>
+        <v>WS-T0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -962,8 +968,8 @@
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>43</v>
+      <c r="B13" t="s">
+        <v>84</v>
       </c>
       <c r="C13" s="2">
         <v>5002</v>
@@ -973,10 +979,10 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>5002-T1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>83</v>
+        <v>WS-T1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G13" t="s">
         <v>68</v>
@@ -986,8 +992,8 @@
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>42</v>
+      <c r="B14" t="s">
+        <v>84</v>
       </c>
       <c r="C14" s="2">
         <v>5003</v>
@@ -997,10 +1003,10 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>5003-T0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
+        <v>WS-T0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -1010,8 +1016,8 @@
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
+      <c r="B15" t="s">
+        <v>84</v>
       </c>
       <c r="C15" s="2">
         <v>5003</v>
@@ -1021,10 +1027,10 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>5003-T1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
+        <v>WS-T1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G15" t="s">
         <v>69</v>
@@ -1034,8 +1040,8 @@
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
+      <c r="B16" t="s">
+        <v>84</v>
       </c>
       <c r="C16" s="2">
         <v>5006</v>
@@ -1045,10 +1051,10 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>5006-T0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
+        <v>WS-T0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
@@ -1058,8 +1064,8 @@
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
+      <c r="B17" t="s">
+        <v>84</v>
       </c>
       <c r="C17" s="2">
         <v>5006</v>
@@ -1069,10 +1075,10 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>5006-T1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>83</v>
+        <v>WS-T1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G17" t="s">
         <v>70</v>
@@ -1082,8 +1088,8 @@
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
+      <c r="B18" t="s">
+        <v>84</v>
       </c>
       <c r="C18" s="2">
         <v>21001</v>
@@ -1093,10 +1099,10 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>21001-T0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>83</v>
+        <v>WS-T0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>53</v>
@@ -1106,8 +1112,8 @@
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>43</v>
+      <c r="B19" t="s">
+        <v>84</v>
       </c>
       <c r="C19" s="2">
         <v>21001</v>
@@ -1117,10 +1123,10 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>21001-T1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
+        <v>WS-T1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G19" t="s">
         <v>71</v>
@@ -1130,8 +1136,8 @@
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
+      <c r="B20" t="s">
+        <v>84</v>
       </c>
       <c r="C20" s="2">
         <v>21005</v>
@@ -1141,10 +1147,10 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>21005-T0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>83</v>
+        <v>WS-T0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G20" t="s">
         <v>54</v>
@@ -1154,8 +1160,8 @@
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
+      <c r="B21" t="s">
+        <v>84</v>
       </c>
       <c r="C21" s="2">
         <v>21005</v>
@@ -1165,10 +1171,10 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>21005-T1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>83</v>
+        <v>WS-T1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G21" t="s">
         <v>72</v>
@@ -1178,8 +1184,8 @@
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
+      <c r="B22" t="s">
+        <v>85</v>
       </c>
       <c r="C22" s="2">
         <v>4004</v>
@@ -1189,10 +1195,10 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>4004-T0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>83</v>
+        <v>WR-T0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G22" t="s">
         <v>55</v>
@@ -1202,8 +1208,8 @@
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
+      <c r="B23" t="s">
+        <v>85</v>
       </c>
       <c r="C23" s="2">
         <v>4004</v>
@@ -1213,10 +1219,10 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>4004-T1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>83</v>
+        <v>WR-T1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G23" t="s">
         <v>73</v>
@@ -1226,8 +1232,8 @@
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>42</v>
+      <c r="B24" t="s">
+        <v>85</v>
       </c>
       <c r="C24" s="2">
         <v>4008</v>
@@ -1237,10 +1243,10 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>4008-T0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>83</v>
+        <v>WR-T0</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G24" t="s">
         <v>56</v>
@@ -1250,8 +1256,8 @@
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>43</v>
+      <c r="B25" t="s">
+        <v>85</v>
       </c>
       <c r="C25" s="2">
         <v>4008</v>
@@ -1261,10 +1267,10 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>4008-T1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>83</v>
+        <v>WR-T1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G25" t="s">
         <v>74</v>
@@ -1274,8 +1280,8 @@
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>42</v>
+      <c r="B26" t="s">
+        <v>85</v>
       </c>
       <c r="C26" s="2">
         <v>5004</v>
@@ -1285,10 +1291,10 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>5004-T0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>83</v>
+        <v>WR-T0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G26" t="s">
         <v>57</v>
@@ -1298,8 +1304,8 @@
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>43</v>
+      <c r="B27" t="s">
+        <v>85</v>
       </c>
       <c r="C27" s="2">
         <v>5004</v>
@@ -1308,11 +1314,11 @@
         <v>45</v>
       </c>
       <c r="E27" t="str">
-        <f>_xlfn.CONCAT(C27,"-",D27)</f>
-        <v>5004-T1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>83</v>
+        <f t="shared" si="0"/>
+        <v>WR-T1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G27" t="s">
         <v>75</v>
@@ -1322,8 +1328,8 @@
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>42</v>
+      <c r="B28" t="s">
+        <v>85</v>
       </c>
       <c r="C28" s="2">
         <v>15002</v>
@@ -1333,10 +1339,10 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>15002-T0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>83</v>
+        <v>WR-T0</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G28" t="s">
         <v>58</v>
@@ -1346,8 +1352,8 @@
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>43</v>
+      <c r="B29" t="s">
+        <v>85</v>
       </c>
       <c r="C29" s="2">
         <v>15002</v>
@@ -1357,10 +1363,10 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>15002-T1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>83</v>
+        <v>WR-T1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G29" t="s">
         <v>76</v>
@@ -1370,8 +1376,8 @@
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
+      <c r="B30" t="s">
+        <v>85</v>
       </c>
       <c r="C30" s="2">
         <v>15004</v>
@@ -1381,10 +1387,10 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>15004-T0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>83</v>
+        <v>WR-T0</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G30" t="s">
         <v>59</v>
@@ -1394,8 +1400,8 @@
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
+      <c r="B31" t="s">
+        <v>85</v>
       </c>
       <c r="C31" s="2">
         <v>15004</v>
@@ -1405,10 +1411,10 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>15004-T1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>83</v>
+        <v>WR-T1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G31" t="s">
         <v>77</v>
@@ -1418,8 +1424,8 @@
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>42</v>
+      <c r="B32" t="s">
+        <v>85</v>
       </c>
       <c r="C32" s="2">
         <v>21003</v>
@@ -1429,10 +1435,10 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>21003-T0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>83</v>
+        <v>WR-T0</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G32" t="s">
         <v>60</v>
@@ -1442,8 +1448,8 @@
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>43</v>
+      <c r="B33" t="s">
+        <v>85</v>
       </c>
       <c r="C33" s="2">
         <v>21003</v>
@@ -1453,10 +1459,10 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>21003-T1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>83</v>
+        <v>WR-T1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G33" t="s">
         <v>78</v>
@@ -1466,8 +1472,8 @@
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>42</v>
+      <c r="B34" t="s">
+        <v>85</v>
       </c>
       <c r="C34" s="2">
         <v>21007</v>
@@ -1477,10 +1483,10 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>21007-T0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>83</v>
+        <v>WR-T0</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G34" t="s">
         <v>61</v>
@@ -1490,8 +1496,8 @@
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>43</v>
+      <c r="B35" t="s">
+        <v>85</v>
       </c>
       <c r="C35" s="2">
         <v>21007</v>
@@ -1501,10 +1507,10 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>21007-T1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>83</v>
+        <v>WR-T1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G35" t="s">
         <v>79</v>
@@ -1514,8 +1520,8 @@
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>42</v>
+      <c r="B36" t="s">
+        <v>85</v>
       </c>
       <c r="C36" s="2">
         <v>15003</v>
@@ -1525,10 +1531,10 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>15003-T0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>83</v>
+        <v>WR-T0</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G36" t="s">
         <v>62</v>
@@ -1538,8 +1544,8 @@
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>43</v>
+      <c r="B37" t="s">
+        <v>85</v>
       </c>
       <c r="C37" s="2">
         <v>15003</v>
@@ -1548,11 +1554,11 @@
         <v>45</v>
       </c>
       <c r="E37" t="str">
-        <f>_xlfn.CONCAT(C37,"-",D37)</f>
-        <v>15003-T1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>83</v>
+        <f t="shared" si="0"/>
+        <v>WR-T1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G37" t="s">
         <v>80</v>
